--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1003411.915491076</v>
+        <v>976975.3601811253</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4776234.424599475</v>
+        <v>4776234.424599476</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5.211223902333198</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>12.45968987784987</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,17 +893,17 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="E5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0500723064956</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>187.9343328656192</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770588</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,73 +1133,73 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>140.5786793831186</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,61 +1370,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>52.64939492479343</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>159.0347330949086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>21.16030022554286</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.55293068116391</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,10 +1701,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.59722534374887</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>58.39471844666277</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1901,7 +1901,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1935,16 +1935,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3453970742849</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,13 +2166,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4.886970932436812</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2245,58 +2245,58 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>12.94771755361648</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>103.7035670991123</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,31 +2552,31 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.03881051849277</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,25 +2834,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>102.3382270926889</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>17.57153846140836</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2959,61 +2959,61 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>131.1096832932227</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>53.02572959448919</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3162,7 +3162,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3263,65 +3263,65 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3408,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>88.64014856619752</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3521,10 +3521,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3582,22 +3582,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>109.0791396725225</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>48.48316818328728</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3746,22 +3746,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,10 +3819,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>5.211223902333169</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,22 +4056,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>56.18438237580115</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.461512326540382</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4331,13 +4331,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4355,25 +4355,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>506.1297083336119</v>
+        <v>345.09272902505</v>
       </c>
       <c r="C3" t="n">
-        <v>506.1297083336119</v>
+        <v>170.639699743923</v>
       </c>
       <c r="D3" t="n">
-        <v>506.1297083336119</v>
+        <v>21.70529008267172</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4437,22 +4437,22 @@
         <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>506.1297083336119</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V3" t="n">
-        <v>506.1297083336119</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W3" t="n">
-        <v>506.1297083336119</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X3" t="n">
-        <v>506.1297083336119</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y3" t="n">
-        <v>506.1297083336119</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
         <v>133.2380658808762</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="C5" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="D5" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4568,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>85.87524403801982</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>265.9510956226784</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4607,10 +4607,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>256.4295990119429</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>256.4295990119429</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,10 +4650,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
         <v>366.5706756325438</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>137.7041268545529</v>
+        <v>632.2387182929002</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.7041268545529</v>
+        <v>424.6449360320109</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
         <v>133.2380658808762</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4805,19 +4805,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4841,13 +4841,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>304.2635924286101</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C9" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D9" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E9" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,7 +4887,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M9" t="n">
         <v>232.5025681519757</v>
@@ -4914,19 +4914,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X9" t="n">
-        <v>680.0727117095674</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y9" t="n">
-        <v>472.4789294486781</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,43 +5048,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>244.0756638309303</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>69.62263454980328</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
         <v>16.44142755506243</v>
@@ -5121,10 +5121,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
         <v>163.1080096386462</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="W12" t="n">
-        <v>619.8847831118876</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X12" t="n">
-        <v>619.8847831118876</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y12" t="n">
-        <v>412.2910008509983</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5279,13 +5279,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5303,16 +5303,16 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
         <v>16.44142755506243</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="C15" t="n">
-        <v>609.8786756122688</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="D15" t="n">
-        <v>460.9442659510175</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>489.416578198335</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>342.88202022522</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>204.1511948078355</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>90.78205921541483</v>
       </c>
       <c r="I15" t="n">
         <v>16.44142755506243</v>
@@ -5358,22 +5358,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5382,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W15" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>743.5980286395683</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>518.2486856454962</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>274.7999090013961</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5622,22 +5622,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="19">
@@ -5707,10 +5707,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>761.6974622895962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5838,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>109.8523314442283</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>183.4549323908569</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.5185981156682</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>32.35964568962331</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>859.306077632745</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>657.1194829915109</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>657.1194829915109</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>421.9673747597683</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>178.5185981156682</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>178.5185981156682</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y24" t="n">
-        <v>178.5185981156682</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.77557929797318</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6266,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6306,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6333,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>122.6530896684844</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="D30" t="n">
-        <v>668.2068788942177</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="E30" t="n">
         <v>508.9694238887622</v>
@@ -6546,46 +6546,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6731,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>152.4692992915062</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,46 +6783,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>152.4692992915062</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,13 +6968,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
         <v>720.6083788665362</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7020,10 +7020,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2696759935595</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>193.7341723913397</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.7568786610034</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="C39" t="n">
-        <v>512.7568786610034</v>
+        <v>278.3965019356282</v>
       </c>
       <c r="D39" t="n">
-        <v>512.7568786610034</v>
+        <v>129.4620922743769</v>
       </c>
       <c r="E39" t="n">
-        <v>353.5194236555479</v>
+        <v>129.4620922743769</v>
       </c>
       <c r="F39" t="n">
-        <v>206.9848656824329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>68.25404026504836</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="C41" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="D41" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="E41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F41" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G41" t="n">
-        <v>199.2900309704538</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7415,13 +7415,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7439,22 +7439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W41" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.8288664974407</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7494,46 +7494,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M42" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N42" t="n">
-        <v>549.2141532458947</v>
-      </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>720.9018483060073</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="W42" t="n">
-        <v>720.9018483060073</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X42" t="n">
-        <v>715.637985778398</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.0442035175087</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.2969392348976</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C45" t="n">
-        <v>132.2969392348976</v>
+        <v>232.4307839502161</v>
       </c>
       <c r="D45" t="n">
-        <v>132.2969392348976</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7731,10 +7731,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
         <v>435.9652341458732</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.2969392348976</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8073,7 +8073,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>134.4691888741278</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,13 +8216,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>290.2250192095839</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,10 +8535,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M9" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8696,7 +8696,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8705,7 +8705,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
@@ -9015,16 +9015,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10443,10 +10443,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,13 +10668,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11072,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,13 +11379,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22595,25 +22595,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>152.4338565530678</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,13 +22677,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>213.481692203125</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.48311134337176</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22926,10 +22926,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>17.83865233785829</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,13 +23030,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23115,13 +23115,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,19 +23154,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>65.19430582035884</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,7 +23258,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23276,7 +23276,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>39.44647140371328</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>220.1946534677488</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,10 +23337,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>94.79567063984533</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>66.90664898606619</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.36645333167579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>35.51648688708401</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23440,7 +23440,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>187.8597693607025</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,10 +23574,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>168.1555683071518</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23589,10 +23589,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>15.7994075076662</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,7 +23622,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23634,7 +23634,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23753,7 +23753,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.6253511395826</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23823,16 +23823,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,7 +23862,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>54.23751747000892</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23947,13 +23947,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,13 +23984,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>158.8955716431281</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,13 +24054,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>132.4565462307738</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>116.1075087528021</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,22 +24206,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>132.1214948397674</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>67.97960400472549</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24388,7 +24388,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>114.792179629552</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>6.703079128258395</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24573,22 +24573,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>136.6438852588116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24683,7 +24683,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,10 +24698,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,25 +24722,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>246.9027416247241</v>
+        <v>341.4623226854617</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24762,10 +24762,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>140.0735419939926</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24996,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>41.59881569509304</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,10 +25011,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>59.20971464200727</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25208,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>31.11902363415049</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>117.13283663728</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25360,13 +25360,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25409,10 +25409,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,10 +25436,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25470,22 +25470,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>35.99007272086133</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>63.75227605320919</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,7 +25530,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25634,22 +25634,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>158.4546847345297</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,16 +25679,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>54.02502153750649</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,10 +25707,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25764,13 +25764,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>218.3136534180552</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>200.5617613011443</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25828,10 +25828,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>351.5828422233929</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,16 +25907,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,22 +25944,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>91.2606831888376</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.8820048366703</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,10 +26007,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402384.0150131684</v>
+        <v>402384.0150131682</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402384.0150131682</v>
+        <v>402384.0150131683</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450416</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450416</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450414</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450416</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402384.0150131682</v>
+        <v>402384.0150131684</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402384.0150131683</v>
+        <v>402384.0150131684</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="E2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="F2" t="n">
         <v>165645.5239266782</v>
@@ -26329,22 +26329,22 @@
         <v>174468.706157899</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="K2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="L2" t="n">
-        <v>174468.7061578989</v>
-      </c>
       <c r="M2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="N2" t="n">
         <v>174468.7061578989</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37704.21824525009</v>
+        <v>34617.07832662206</v>
       </c>
       <c r="C6" t="n">
-        <v>106577.9748269399</v>
+        <v>103490.8349083119</v>
       </c>
       <c r="D6" t="n">
-        <v>106577.9748269399</v>
+        <v>103490.8349083119</v>
       </c>
       <c r="E6" t="n">
-        <v>140205.57482694</v>
+        <v>137118.4349083119</v>
       </c>
       <c r="F6" t="n">
-        <v>140205.57482694</v>
+        <v>137118.434908312</v>
       </c>
       <c r="G6" t="n">
-        <v>136425.1432205928</v>
+        <v>133171.3047789894</v>
       </c>
       <c r="H6" t="n">
-        <v>146154.1861947599</v>
+        <v>142900.3477531564</v>
       </c>
       <c r="I6" t="n">
-        <v>146154.1861947598</v>
+        <v>142900.3477531564</v>
       </c>
       <c r="J6" t="n">
-        <v>92381.67530455039</v>
+        <v>89127.83686294704</v>
       </c>
       <c r="K6" t="n">
-        <v>146154.1861947599</v>
+        <v>142900.3477531564</v>
       </c>
       <c r="L6" t="n">
-        <v>146154.1861947598</v>
+        <v>142900.3477531565</v>
       </c>
       <c r="M6" t="n">
-        <v>146154.1861947598</v>
+        <v>142900.3477531565</v>
       </c>
       <c r="N6" t="n">
-        <v>146154.1861947598</v>
+        <v>142900.3477531564</v>
       </c>
       <c r="O6" t="n">
-        <v>140205.5748269399</v>
+        <v>137118.4349083119</v>
       </c>
       <c r="P6" t="n">
-        <v>140205.5748269399</v>
+        <v>137118.4349083119</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0.494781459797586</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34936,13 +34936,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>70.13516816460341</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34951,7 +34951,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12.72573192223801</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35425,7 +35425,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37163,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,13 +38099,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976975.3601811253</v>
+        <v>977759.5061191539</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4776234.424599476</v>
+        <v>4776234.424599475</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="T2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.211223902333198</v>
+        <v>113.3641153567508</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -902,64 +904,64 @@
         <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,16 +977,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.9343328656192</v>
+        <v>107.7449112262312</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1142,58 +1144,58 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="W8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>181.0201173812374</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="V9" t="n">
         <v>205.5178444382804</v>
@@ -1275,7 +1277,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>180.2735260549796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1415,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>31.1509994400877</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>159.0347330949086</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>81.44781579947808</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1692,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.59722534374887</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1920,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>145.9272112248127</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,64 +2083,64 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2166,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.886970932436812</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,16 +2219,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>12.94771755361648</v>
+        <v>103.7035670991123</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,64 +2484,64 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,67 +2563,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>82.69355372315668</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,64 +2797,64 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>7.778646031951277</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>153.9278504295559</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>17.57153846140836</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,26 +3028,26 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C32" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>131.1096832932227</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>53.02572959448919</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3162,7 +3164,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>88.64014856619752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3521,10 +3523,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>31.04389647911763</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3591,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>109.0791396725225</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3752,55 +3754,55 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
+      <c r="U41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I41" t="n">
+      <c r="W41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,10 +3821,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.1509994400877</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,10 +4061,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>56.18438237580115</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>42.14629172736426</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T2" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U2" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V2" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W2" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.09272902505</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="C3" t="n">
-        <v>170.639699743923</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="D3" t="n">
-        <v>21.70529008267172</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V3" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W3" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X3" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="4">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4568,13 +4570,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4607,10 +4609,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256.4295990119429</v>
+        <v>337.4290148093045</v>
       </c>
       <c r="C6" t="n">
-        <v>256.4295990119429</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D6" t="n">
-        <v>107.4951893506917</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E6" t="n">
-        <v>107.4951893506917</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,7 +4652,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
         <v>366.5706756325438</v>
@@ -4686,10 +4688,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>632.2387182929002</v>
+        <v>713.2381340902618</v>
       </c>
       <c r="Y6" t="n">
-        <v>424.6449360320109</v>
+        <v>505.6443518293725</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4838,16 +4840,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4914,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="V9" t="n">
-        <v>406.8838132313431</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="W9" t="n">
-        <v>199.2900309704538</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5042,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5121,13 +5123,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>184.6567645751305</v>
+        <v>739.8008567435478</v>
       </c>
       <c r="X12" t="n">
-        <v>184.6567645751305</v>
+        <v>532.2070744826585</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>324.6132922217692</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5218,31 +5220,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="14">
@@ -5288,10 +5290,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5300,16 +5302,16 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
         <v>16.44142755506243</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>648.6540332037905</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>648.6540332037905</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>648.6540332037905</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>489.416578198335</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>342.88202022522</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>204.1511948078355</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>90.78205921541483</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>648.6540332037905</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>648.6540332037905</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V15" t="n">
-        <v>648.6540332037905</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W15" t="n">
-        <v>648.6540332037905</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X15" t="n">
-        <v>648.6540332037905</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y15" t="n">
-        <v>648.6540332037905</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5595,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>816.6559320512295</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>816.6559320512295</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>816.6559320512295</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>816.6559320512295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5695,16 +5697,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>183.4549323908569</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C21" t="n">
-        <v>183.4549323908569</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D21" t="n">
-        <v>183.4549323908569</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E21" t="n">
-        <v>24.21747738540142</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F21" t="n">
-        <v>24.21747738540142</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>391.2152311558108</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>391.2152311558108</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>183.4549323908569</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.8126749707503</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C24" t="n">
-        <v>32.35964568962331</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D24" t="n">
-        <v>32.35964568962331</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E24" t="n">
-        <v>32.35964568962331</v>
+        <v>124.032220988104</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>582.7883107557723</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.0280119908184</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>962.2293816994886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.8099852548154</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>102.8099852548154</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>102.8099852548154</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>102.8099852548154</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>526.7184526376595</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C30" t="n">
-        <v>526.7184526376595</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>526.7184526376595</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>526.7184526376595</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y32" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V32" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W32" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="X32" t="n">
-        <v>233.7108255783361</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>487.2836868729568</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="C33" t="n">
-        <v>312.8306575918298</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>163.8962479305785</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>163.8962479305785</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>163.8962479305785</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>163.8962479305785</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>152.4692992915062</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E35" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="E35" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>108.8166467124325</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,13 +7022,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>399.5118995681682</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W36" t="n">
-        <v>156.0631229240681</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X36" t="n">
-        <v>156.0631229240681</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y36" t="n">
-        <v>156.0631229240681</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>452.8495312167552</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="C39" t="n">
-        <v>278.3965019356282</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D39" t="n">
-        <v>129.4620922743769</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E39" t="n">
-        <v>129.4620922743769</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>452.8495312167552</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>452.8495312167552</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="40">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7503,7 +7505,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7524,16 +7526,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>807.4381113577983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>599.8443290969091</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
         <v>16.44142755506243</v>
@@ -7655,13 +7657,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>255.5008658160403</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>255.5008658160403</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.90708355515102</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>232.4307839502161</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="D45" t="n">
-        <v>175.6788825605179</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>232.5025681519757</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>781.8412894009042</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -7994,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,16 +8069,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,10 +10445,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,16 +10670,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10916,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11151,10 +11153,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11303,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,25 +22591,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>199.809058715315</v>
       </c>
       <c r="T2" t="n">
-        <v>42.07573218289394</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4338565530678</v>
+        <v>44.28096509865013</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22671,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22790,7 +22792,7 @@
         <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>200.9102526910243</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,16 +22865,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22926,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>17.83865233785829</v>
+        <v>98.02807397724629</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -23030,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23078,10 +23080,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>158.68143044351</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23121,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>211.4544483496048</v>
       </c>
       <c r="V9" t="n">
         <v>27.28274271114486</v>
@@ -23163,7 +23165,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>25.49945914849792</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23258,10 +23260,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23303,19 +23305,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>220.1946534677488</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>66.90664898606619</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>170.2471673614415</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>35.51648688708401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23437,7 +23439,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>68.603747608882</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>52.06643139743875</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23580,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>15.7994075076662</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>106.6379011007371</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23808,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>54.23751747000892</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23947,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,10 +23986,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,10 +24025,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24054,16 +24056,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>132.4565462307738</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24105,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>132.1214948397674</v>
+        <v>41.36564529427154</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891959</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,22 +24451,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>380.1208739992256</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>84.58157038459437</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>6.703079128258395</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,16 +24733,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>341.4623226854617</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>18.78064855875985</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>140.0735419939926</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,10 +24998,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>41.59881569509304</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,10 +25013,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>59.20971464200727</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31.11902363415049</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0.7564842852175531</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25409,10 +25411,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>135.4892871707497</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25479,10 +25481,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>35.99007272086133</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,7 +25532,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>54.02502153750649</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659908</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,10 +25709,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25764,13 +25766,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.5828422233929</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25910,13 +25912,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,10 +25949,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>91.2606831888376</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>115.4987887280367</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>128.1631918897635</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26044,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402384.0150131682</v>
+        <v>402384.0150131684</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402384.0150131683</v>
+        <v>402384.0150131682</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402384.0150131684</v>
+        <v>402384.0150131682</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402384.0150131683</v>
+        <v>402384.0150131684</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402384.0150131683</v>
+        <v>402384.0150131682</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450414</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450416</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450416</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423828.8048450414</v>
+        <v>423828.8048450416</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402384.0150131684</v>
+        <v>402384.0150131683</v>
       </c>
     </row>
     <row r="16">
@@ -26320,34 +26322,34 @@
         <v>165645.5239266781</v>
       </c>
       <c r="E2" t="n">
+        <v>165645.5239266782</v>
+      </c>
+      <c r="F2" t="n">
         <v>165645.5239266781</v>
       </c>
-      <c r="F2" t="n">
-        <v>165645.5239266782</v>
-      </c>
       <c r="G2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="H2" t="n">
         <v>174468.706157899</v>
-      </c>
-      <c r="H2" t="n">
-        <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="J2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="K2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="L2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="M2" t="n">
         <v>174468.706157899</v>
       </c>
       <c r="N2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
@@ -26433,7 +26435,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16914.68964098084</v>
+        <v>16914.68964098083</v>
       </c>
       <c r="I4" t="n">
         <v>16914.68964098084</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34617.07832662206</v>
+        <v>34617.07832662209</v>
       </c>
       <c r="C6" t="n">
         <v>103490.8349083119</v>
@@ -26528,34 +26530,34 @@
         <v>103490.8349083119</v>
       </c>
       <c r="E6" t="n">
+        <v>137118.434908312</v>
+      </c>
+      <c r="F6" t="n">
         <v>137118.4349083119</v>
       </c>
-      <c r="F6" t="n">
-        <v>137118.434908312</v>
-      </c>
       <c r="G6" t="n">
-        <v>133171.3047789894</v>
+        <v>133171.3047789893</v>
       </c>
       <c r="H6" t="n">
-        <v>142900.3477531564</v>
+        <v>142900.3477531565</v>
       </c>
       <c r="I6" t="n">
         <v>142900.3477531564</v>
       </c>
       <c r="J6" t="n">
-        <v>89127.83686294704</v>
+        <v>89127.83686294699</v>
       </c>
       <c r="K6" t="n">
+        <v>142900.3477531565</v>
+      </c>
+      <c r="L6" t="n">
         <v>142900.3477531564</v>
-      </c>
-      <c r="L6" t="n">
-        <v>142900.3477531565</v>
       </c>
       <c r="M6" t="n">
         <v>142900.3477531565</v>
       </c>
       <c r="N6" t="n">
-        <v>142900.3477531564</v>
+        <v>142900.3477531565</v>
       </c>
       <c r="O6" t="n">
         <v>137118.4349083119</v>
@@ -34699,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34714,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M6" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="M6" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,10 +37165,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37871,10 +37873,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>977759.5061191539</v>
+        <v>873527.0078557107</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4776234.424599475</v>
+        <v>4776234.424599476</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
         <v>205.5178444382804</v>
@@ -667,7 +667,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>113.3641153567508</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>13.94347069460048</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>159.0801288120801</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>107.7449112262312</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>205.5178444382804</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>14.48693373137006</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>8.311618392921636</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>81.44781579947808</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
-        <v>171.0294181666926</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>119.3034809802377</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>69.99226724763527</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>56.17030901074575</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,52 +2247,52 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2323,67 +2323,67 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>103.7035670991123</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>84.21812095798909</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>153.9278504295559</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>131.1096832932227</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>80.38776757101658</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,61 +3195,61 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>88.64014856619752</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3435,52 +3435,52 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31.04389647911763</v>
+        <v>81.94696239689883</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>9.336946277399601</v>
       </c>
     </row>
     <row r="43">
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>42.14629172736426</v>
+        <v>97.16285988560618</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>505.3755756808262</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>358.8410177077111</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>220.1101922903266</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>106.7410566979059</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V3" t="n">
-        <v>619.8847831118876</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W3" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337.4290148093045</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4655,16 +4655,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4682,16 +4682,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X6" t="n">
-        <v>713.2381340902618</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>505.6443518293725</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4819,37 +4819,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>236.1051990630351</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
         <v>16.44142755506243</v>
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4916,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>807.4381113577983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>599.8443290969091</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="W9" t="n">
-        <v>392.2505468360198</v>
+        <v>606.0820213579681</v>
       </c>
       <c r="X9" t="n">
-        <v>184.6567645751305</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5123,22 +5123,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>739.8008567435478</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>532.2070744826585</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5220,31 +5220,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5302,10 +5302,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
         <v>431.628992076841</v>
@@ -5314,16 +5314,16 @@
         <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5366,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5381,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>224.7893424687375</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V15" t="n">
-        <v>224.7893424687375</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W15" t="n">
-        <v>17.19556020784815</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X15" t="n">
-        <v>17.19556020784815</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5466,22 +5466,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>90.73453560909468</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>90.73453560909468</v>
       </c>
     </row>
     <row r="19">
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5867,16 +5867,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>124.032220988104</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>283.2696759935595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6171,22 +6171,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
         <v>31.35113235729608</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.2326523711826</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>105.1040848114723</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>105.1040848114723</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>313.4946457291688</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>481.7099827492369</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>152.4692992915062</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
         <v>20.03527576299844</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="X33" t="n">
-        <v>360.2295980564601</v>
+        <v>781.6878608402728</v>
       </c>
       <c r="Y33" t="n">
-        <v>152.4692992915062</v>
+        <v>781.6878608402728</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6897,13 +6897,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E35" t="n">
-        <v>477.1596022224361</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>108.8166467124325</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>108.8166467124325</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>108.8166467124325</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>108.8166467124325</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>108.8166467124325</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>108.8166467124325</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V36" t="n">
-        <v>526.7184526376595</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2696759935595</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X36" t="n">
-        <v>283.2696759935595</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y36" t="n">
-        <v>283.2696759935595</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>481.3994074699755</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>306.9463781888485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="M39" t="n">
         <v>304.2053859195205</v>
-      </c>
-      <c r="M39" t="n">
-        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.7568786610034</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="40">
@@ -7359,7 +7359,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
         <v>16.44142755506243</v>
@@ -7414,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>463.0946480769296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7496,16 +7496,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7654,13 +7654,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D45" t="n">
-        <v>59.01343940088492</v>
+        <v>465.5431858309811</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>367.3988829162274</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>781.8412894009042</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>781.8412894009042</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>781.8412894009042</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8069,16 +8069,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8303,7 +8303,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>344.0722242181546</v>
@@ -8780,7 +8780,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2508595994748</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11311,7 +11311,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
         <v>159.7550473327271</v>
@@ -22555,7 +22555,7 @@
         <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>44.28096509865013</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>218.8571164548248</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22843,13 +22843,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>168.6721296580548</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,7 +22874,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22922,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>51.78046976818791</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>98.02807397724629</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>0.1648513390239543</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23080,10 +23080,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>158.68143044351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>211.4544483496048</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>224.4889687565036</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23317,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23342,10 +23342,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23390,22 +23390,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>170.2471673614415</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.603747608882</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>52.06643139743875</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>106.6379011007371</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>192.1082510670971</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23746,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>75.07694514574861</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23934,10 +23934,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24025,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24065,13 +24065,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24211,16 +24211,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24293,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>41.36564529427154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>192.3884445891959</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>340.0065027013012</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,10 +24524,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>84.58157038459437</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>5.178511893425991</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24645,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>18.78064855875985</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>41.59881569509304</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>119.776961123805</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>328.2817459595876</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7564842852175531</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,10 +25283,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25298,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>135.4892871707497</v>
+        <v>84.58622125296851</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25684,13 +25684,13 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659908</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25757,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25766,16 +25766,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>196.3457494999048</v>
       </c>
     </row>
     <row r="43">
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>222.8502412601817</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25930,10 +25930,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>115.4987887280367</v>
+        <v>60.48222056979476</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.1631918897635</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26046,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402384.0150131684</v>
+        <v>402384.0150131683</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402384.0150131682</v>
+        <v>402384.0150131683</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>402384.0150131682</v>
+        <v>402384.0150131684</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402384.0150131684</v>
+        <v>402384.0150131683</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402384.0150131682</v>
+        <v>402384.0150131683</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>423828.8048450414</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402384.0150131683</v>
+        <v>402384.0150131684</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>165645.5239266781</v>
       </c>
       <c r="C2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="D2" t="n">
         <v>165645.5239266781</v>
@@ -26331,7 +26331,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
         <v>174468.7061578989</v>
@@ -26340,7 +26340,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="K2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="L2" t="n">
         <v>174468.7061578989</v>
@@ -26435,7 +26435,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16914.68964098083</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
         <v>16914.68964098084</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34617.07832662209</v>
+        <v>21978.91617176159</v>
       </c>
       <c r="C6" t="n">
-        <v>103490.8349083119</v>
+        <v>90852.67275345145</v>
       </c>
       <c r="D6" t="n">
-        <v>103490.8349083119</v>
+        <v>90852.67275345136</v>
       </c>
       <c r="E6" t="n">
-        <v>137118.434908312</v>
+        <v>124480.2727534515</v>
       </c>
       <c r="F6" t="n">
-        <v>137118.4349083119</v>
+        <v>124480.2727534514</v>
       </c>
       <c r="G6" t="n">
-        <v>133171.3047789893</v>
+        <v>120953.2941589489</v>
       </c>
       <c r="H6" t="n">
-        <v>142900.3477531565</v>
+        <v>130682.3371331159</v>
       </c>
       <c r="I6" t="n">
-        <v>142900.3477531564</v>
+        <v>130682.3371331159</v>
       </c>
       <c r="J6" t="n">
-        <v>89127.83686294699</v>
+        <v>76909.82624290652</v>
       </c>
       <c r="K6" t="n">
-        <v>142900.3477531565</v>
+        <v>130682.3371331159</v>
       </c>
       <c r="L6" t="n">
-        <v>142900.3477531564</v>
+        <v>130682.3371331159</v>
       </c>
       <c r="M6" t="n">
-        <v>142900.3477531565</v>
+        <v>130682.337133116</v>
       </c>
       <c r="N6" t="n">
-        <v>142900.3477531565</v>
+        <v>130682.337133116</v>
       </c>
       <c r="O6" t="n">
-        <v>137118.4349083119</v>
+        <v>124480.2727534514</v>
       </c>
       <c r="P6" t="n">
-        <v>137118.4349083119</v>
+        <v>124480.2727534514</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,7 +35023,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>205.5178444382804</v>
@@ -35500,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9091475161415</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38031,7 +38031,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
